--- a/deanonymisation-phase2/data/new/variable_adjusted_filtered_data_registerZ.xlsx
+++ b/deanonymisation-phase2/data/new/variable_adjusted_filtered_data_registerZ.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,11 +478,6 @@
           <t>age</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>age_group</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -517,11 +512,6 @@
       <c r="H2" t="n">
         <v>21</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -556,11 +546,6 @@
       <c r="H3" t="n">
         <v>22</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -595,11 +580,6 @@
       <c r="H4" t="n">
         <v>21</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -634,11 +614,6 @@
       <c r="H5" t="n">
         <v>22</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -673,11 +648,6 @@
       <c r="H6" t="n">
         <v>22</v>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -712,11 +682,6 @@
       <c r="H7" t="n">
         <v>29</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -751,11 +716,6 @@
       <c r="H8" t="n">
         <v>30</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -790,11 +750,6 @@
       <c r="H9" t="n">
         <v>34</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -829,11 +784,6 @@
       <c r="H10" t="n">
         <v>36</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -868,11 +818,6 @@
       <c r="H11" t="n">
         <v>30</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -907,11 +852,6 @@
       <c r="H12" t="n">
         <v>28</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -946,11 +886,6 @@
       <c r="H13" t="n">
         <v>32</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -985,11 +920,6 @@
       <c r="H14" t="n">
         <v>29</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1024,11 +954,6 @@
       <c r="H15" t="n">
         <v>33</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1063,11 +988,6 @@
       <c r="H16" t="n">
         <v>31</v>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1102,11 +1022,6 @@
       <c r="H17" t="n">
         <v>35</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1141,11 +1056,6 @@
       <c r="H18" t="n">
         <v>32</v>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1180,11 +1090,6 @@
       <c r="H19" t="n">
         <v>31</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1219,11 +1124,6 @@
       <c r="H20" t="n">
         <v>35</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1258,11 +1158,6 @@
       <c r="H21" t="n">
         <v>34</v>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1297,11 +1192,6 @@
       <c r="H22" t="n">
         <v>34</v>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1336,11 +1226,6 @@
       <c r="H23" t="n">
         <v>33</v>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1375,11 +1260,6 @@
       <c r="H24" t="n">
         <v>29</v>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1414,11 +1294,6 @@
       <c r="H25" t="n">
         <v>34</v>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1453,11 +1328,6 @@
       <c r="H26" t="n">
         <v>35</v>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1492,11 +1362,6 @@
       <c r="H27" t="n">
         <v>36</v>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1531,11 +1396,6 @@
       <c r="H28" t="n">
         <v>31</v>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1570,11 +1430,6 @@
       <c r="H29" t="n">
         <v>33</v>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1609,11 +1464,6 @@
       <c r="H30" t="n">
         <v>31</v>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1648,11 +1498,6 @@
       <c r="H31" t="n">
         <v>27</v>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1687,11 +1532,6 @@
       <c r="H32" t="n">
         <v>36</v>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1726,11 +1566,6 @@
       <c r="H33" t="n">
         <v>46</v>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1765,11 +1600,6 @@
       <c r="H34" t="n">
         <v>44</v>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1804,11 +1634,6 @@
       <c r="H35" t="n">
         <v>43</v>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1843,11 +1668,6 @@
       <c r="H36" t="n">
         <v>38</v>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1882,11 +1702,6 @@
       <c r="H37" t="n">
         <v>41</v>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1921,11 +1736,6 @@
       <c r="H38" t="n">
         <v>39</v>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1960,11 +1770,6 @@
       <c r="H39" t="n">
         <v>42</v>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1999,11 +1804,6 @@
       <c r="H40" t="n">
         <v>41</v>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2038,11 +1838,6 @@
       <c r="H41" t="n">
         <v>41</v>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2077,11 +1872,6 @@
       <c r="H42" t="n">
         <v>38</v>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2116,11 +1906,6 @@
       <c r="H43" t="n">
         <v>39</v>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2155,11 +1940,6 @@
       <c r="H44" t="n">
         <v>40</v>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2194,11 +1974,6 @@
       <c r="H45" t="n">
         <v>40</v>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2233,11 +2008,6 @@
       <c r="H46" t="n">
         <v>39</v>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2272,11 +2042,6 @@
       <c r="H47" t="n">
         <v>50</v>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2311,11 +2076,6 @@
       <c r="H48" t="n">
         <v>50</v>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2350,11 +2110,6 @@
       <c r="H49" t="n">
         <v>53</v>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2389,11 +2144,6 @@
       <c r="H50" t="n">
         <v>52</v>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2428,11 +2178,6 @@
       <c r="H51" t="n">
         <v>51</v>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2467,11 +2212,6 @@
       <c r="H52" t="n">
         <v>51</v>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2506,11 +2246,6 @@
       <c r="H53" t="n">
         <v>55</v>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2545,11 +2280,6 @@
       <c r="H54" t="n">
         <v>56</v>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2584,11 +2314,6 @@
       <c r="H55" t="n">
         <v>53</v>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2623,11 +2348,6 @@
       <c r="H56" t="n">
         <v>47</v>
       </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2662,11 +2382,6 @@
       <c r="H57" t="n">
         <v>47</v>
       </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2701,11 +2416,6 @@
       <c r="H58" t="n">
         <v>47</v>
       </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2740,11 +2450,6 @@
       <c r="H59" t="n">
         <v>50</v>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2779,11 +2484,6 @@
       <c r="H60" t="n">
         <v>63</v>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2818,11 +2518,6 @@
       <c r="H61" t="n">
         <v>61</v>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2857,11 +2552,6 @@
       <c r="H62" t="n">
         <v>63</v>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2896,11 +2586,6 @@
       <c r="H63" t="n">
         <v>63</v>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2935,11 +2620,6 @@
       <c r="H64" t="n">
         <v>58</v>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2974,11 +2654,6 @@
       <c r="H65" t="n">
         <v>58</v>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3013,11 +2688,6 @@
       <c r="H66" t="n">
         <v>61</v>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3052,11 +2722,6 @@
       <c r="H67" t="n">
         <v>69</v>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3091,11 +2756,6 @@
       <c r="H68" t="n">
         <v>73</v>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3130,11 +2790,6 @@
       <c r="H69" t="n">
         <v>31</v>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3169,11 +2824,6 @@
       <c r="H70" t="n">
         <v>25</v>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3208,11 +2858,6 @@
       <c r="H71" t="n">
         <v>22</v>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3247,11 +2892,6 @@
       <c r="H72" t="n">
         <v>25</v>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3286,11 +2926,6 @@
       <c r="H73" t="n">
         <v>22</v>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3325,11 +2960,6 @@
       <c r="H74" t="n">
         <v>20</v>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3364,11 +2994,6 @@
       <c r="H75" t="n">
         <v>29</v>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3403,11 +3028,6 @@
       <c r="H76" t="n">
         <v>21</v>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3442,11 +3062,6 @@
       <c r="H77" t="n">
         <v>24</v>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3481,11 +3096,6 @@
       <c r="H78" t="n">
         <v>25</v>
       </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3520,11 +3130,6 @@
       <c r="H79" t="n">
         <v>30</v>
       </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3559,11 +3164,6 @@
       <c r="H80" t="n">
         <v>28</v>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3598,11 +3198,6 @@
       <c r="H81" t="n">
         <v>29</v>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3637,11 +3232,6 @@
       <c r="H82" t="n">
         <v>23</v>
       </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3676,11 +3266,6 @@
       <c r="H83" t="n">
         <v>20</v>
       </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3715,11 +3300,6 @@
       <c r="H84" t="n">
         <v>21</v>
       </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3754,11 +3334,6 @@
       <c r="H85" t="n">
         <v>20</v>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3793,11 +3368,6 @@
       <c r="H86" t="n">
         <v>29</v>
       </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3832,11 +3402,6 @@
       <c r="H87" t="n">
         <v>19</v>
       </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>0-20</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3871,11 +3436,6 @@
       <c r="H88" t="n">
         <v>29</v>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3910,11 +3470,6 @@
       <c r="H89" t="n">
         <v>32</v>
       </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3949,11 +3504,6 @@
       <c r="H90" t="n">
         <v>36</v>
       </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3988,11 +3538,6 @@
       <c r="H91" t="n">
         <v>45</v>
       </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4027,11 +3572,6 @@
       <c r="H92" t="n">
         <v>41</v>
       </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4066,11 +3606,6 @@
       <c r="H93" t="n">
         <v>31</v>
       </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4105,11 +3640,6 @@
       <c r="H94" t="n">
         <v>36</v>
       </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4144,11 +3674,6 @@
       <c r="H95" t="n">
         <v>37</v>
       </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4183,11 +3708,6 @@
       <c r="H96" t="n">
         <v>46</v>
       </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4222,11 +3742,6 @@
       <c r="H97" t="n">
         <v>40</v>
       </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4261,11 +3776,6 @@
       <c r="H98" t="n">
         <v>32</v>
       </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4300,11 +3810,6 @@
       <c r="H99" t="n">
         <v>36</v>
       </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4339,11 +3844,6 @@
       <c r="H100" t="n">
         <v>36</v>
       </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4378,11 +3878,6 @@
       <c r="H101" t="n">
         <v>35</v>
       </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4417,11 +3912,6 @@
       <c r="H102" t="n">
         <v>42</v>
       </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4456,11 +3946,6 @@
       <c r="H103" t="n">
         <v>39</v>
       </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4495,11 +3980,6 @@
       <c r="H104" t="n">
         <v>40</v>
       </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4534,11 +4014,6 @@
       <c r="H105" t="n">
         <v>37</v>
       </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4573,11 +4048,6 @@
       <c r="H106" t="n">
         <v>41</v>
       </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4612,11 +4082,6 @@
       <c r="H107" t="n">
         <v>41</v>
       </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4651,11 +4116,6 @@
       <c r="H108" t="n">
         <v>39</v>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4690,11 +4150,6 @@
       <c r="H109" t="n">
         <v>32</v>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4729,11 +4184,6 @@
       <c r="H110" t="n">
         <v>41</v>
       </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4768,11 +4218,6 @@
       <c r="H111" t="n">
         <v>38</v>
       </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4807,11 +4252,6 @@
       <c r="H112" t="n">
         <v>44</v>
       </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4846,11 +4286,6 @@
       <c r="H113" t="n">
         <v>36</v>
       </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>20-40</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4885,11 +4320,6 @@
       <c r="H114" t="n">
         <v>56</v>
       </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4924,11 +4354,6 @@
       <c r="H115" t="n">
         <v>65</v>
       </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4963,11 +4388,6 @@
       <c r="H116" t="n">
         <v>66</v>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5002,11 +4422,6 @@
       <c r="H117" t="n">
         <v>63</v>
       </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5041,11 +4456,6 @@
       <c r="H118" t="n">
         <v>64</v>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5080,11 +4490,6 @@
       <c r="H119" t="n">
         <v>66</v>
       </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5119,11 +4524,6 @@
       <c r="H120" t="n">
         <v>50</v>
       </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5158,11 +4558,6 @@
       <c r="H121" t="n">
         <v>52</v>
       </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5197,11 +4592,6 @@
       <c r="H122" t="n">
         <v>62</v>
       </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5236,11 +4626,6 @@
       <c r="H123" t="n">
         <v>58</v>
       </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5275,11 +4660,6 @@
       <c r="H124" t="n">
         <v>61</v>
       </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5314,11 +4694,6 @@
       <c r="H125" t="n">
         <v>47</v>
       </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5353,11 +4728,6 @@
       <c r="H126" t="n">
         <v>49</v>
       </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5392,11 +4762,6 @@
       <c r="H127" t="n">
         <v>56</v>
       </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5431,11 +4796,6 @@
       <c r="H128" t="n">
         <v>64</v>
       </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5470,11 +4830,6 @@
       <c r="H129" t="n">
         <v>49</v>
       </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5509,11 +4864,6 @@
       <c r="H130" t="n">
         <v>54</v>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5548,11 +4898,6 @@
       <c r="H131" t="n">
         <v>55</v>
       </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5587,11 +4932,6 @@
       <c r="H132" t="n">
         <v>55</v>
       </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5626,11 +4966,6 @@
       <c r="H133" t="n">
         <v>48</v>
       </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5665,11 +5000,6 @@
       <c r="H134" t="n">
         <v>65</v>
       </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5704,11 +5034,6 @@
       <c r="H135" t="n">
         <v>66</v>
       </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5743,11 +5068,6 @@
       <c r="H136" t="n">
         <v>47</v>
       </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5782,11 +5102,6 @@
       <c r="H137" t="n">
         <v>65</v>
       </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5821,11 +5136,6 @@
       <c r="H138" t="n">
         <v>61</v>
       </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5860,11 +5170,6 @@
       <c r="H139" t="n">
         <v>47</v>
       </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5899,11 +5204,6 @@
       <c r="H140" t="n">
         <v>46</v>
       </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5938,11 +5238,6 @@
       <c r="H141" t="n">
         <v>52</v>
       </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5977,11 +5272,6 @@
       <c r="H142" t="n">
         <v>59</v>
       </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6016,11 +5306,6 @@
       <c r="H143" t="n">
         <v>66</v>
       </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6055,11 +5340,6 @@
       <c r="H144" t="n">
         <v>65</v>
       </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6094,11 +5374,6 @@
       <c r="H145" t="n">
         <v>55</v>
       </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6133,11 +5408,6 @@
       <c r="H146" t="n">
         <v>58</v>
       </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6172,11 +5442,6 @@
       <c r="H147" t="n">
         <v>56</v>
       </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -6211,11 +5476,6 @@
       <c r="H148" t="n">
         <v>48</v>
       </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -6250,11 +5510,6 @@
       <c r="H149" t="n">
         <v>57</v>
       </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -6289,11 +5544,6 @@
       <c r="H150" t="n">
         <v>48</v>
       </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -6328,11 +5578,6 @@
       <c r="H151" t="n">
         <v>65</v>
       </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -6367,11 +5612,6 @@
       <c r="H152" t="n">
         <v>57</v>
       </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -6406,11 +5646,6 @@
       <c r="H153" t="n">
         <v>64</v>
       </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -6445,11 +5680,6 @@
       <c r="H154" t="n">
         <v>51</v>
       </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -6484,11 +5714,6 @@
       <c r="H155" t="n">
         <v>51</v>
       </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -6523,11 +5748,6 @@
       <c r="H156" t="n">
         <v>47</v>
       </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -6562,11 +5782,6 @@
       <c r="H157" t="n">
         <v>52</v>
       </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -6601,11 +5816,6 @@
       <c r="H158" t="n">
         <v>47</v>
       </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6640,11 +5850,6 @@
       <c r="H159" t="n">
         <v>65</v>
       </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6679,11 +5884,6 @@
       <c r="H160" t="n">
         <v>50</v>
       </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6718,11 +5918,6 @@
       <c r="H161" t="n">
         <v>47</v>
       </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6757,11 +5952,6 @@
       <c r="H162" t="n">
         <v>59</v>
       </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6796,11 +5986,6 @@
       <c r="H163" t="n">
         <v>65</v>
       </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6835,11 +6020,6 @@
       <c r="H164" t="n">
         <v>78</v>
       </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6874,11 +6054,6 @@
       <c r="H165" t="n">
         <v>42</v>
       </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6913,11 +6088,6 @@
       <c r="H166" t="n">
         <v>53</v>
       </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6952,11 +6122,6 @@
       <c r="H167" t="n">
         <v>99</v>
       </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>80-100</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6991,11 +6156,6 @@
       <c r="H168" t="n">
         <v>67</v>
       </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -7030,11 +6190,6 @@
       <c r="H169" t="n">
         <v>62</v>
       </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -7069,11 +6224,6 @@
       <c r="H170" t="n">
         <v>68</v>
       </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -7108,11 +6258,6 @@
       <c r="H171" t="n">
         <v>75</v>
       </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -7147,11 +6292,6 @@
       <c r="H172" t="n">
         <v>64</v>
       </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -7186,11 +6326,6 @@
       <c r="H173" t="n">
         <v>58</v>
       </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -7225,11 +6360,6 @@
       <c r="H174" t="n">
         <v>77</v>
       </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -7264,11 +6394,6 @@
       <c r="H175" t="n">
         <v>74</v>
       </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -7303,11 +6428,6 @@
       <c r="H176" t="n">
         <v>91</v>
       </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>80-100</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -7342,11 +6462,6 @@
       <c r="H177" t="n">
         <v>81</v>
       </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>80-100</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -7381,11 +6496,6 @@
       <c r="H178" t="n">
         <v>63</v>
       </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -7420,11 +6530,6 @@
       <c r="H179" t="n">
         <v>77</v>
       </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -7459,11 +6564,6 @@
       <c r="H180" t="n">
         <v>55</v>
       </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -7498,11 +6598,6 @@
       <c r="H181" t="n">
         <v>91</v>
       </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>80-100</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -7537,11 +6632,6 @@
       <c r="H182" t="n">
         <v>81</v>
       </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>80-100</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -7576,11 +6666,6 @@
       <c r="H183" t="n">
         <v>76</v>
       </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -7615,11 +6700,6 @@
       <c r="H184" t="n">
         <v>96</v>
       </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>80-100</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -7654,11 +6734,6 @@
       <c r="H185" t="n">
         <v>74</v>
       </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -7693,11 +6768,6 @@
       <c r="H186" t="n">
         <v>71</v>
       </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -7732,11 +6802,6 @@
       <c r="H187" t="n">
         <v>83</v>
       </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>80-100</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7771,11 +6836,6 @@
       <c r="H188" t="n">
         <v>84</v>
       </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>80-100</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7810,11 +6870,6 @@
       <c r="H189" t="n">
         <v>47</v>
       </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7849,11 +6904,6 @@
       <c r="H190" t="n">
         <v>95</v>
       </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>80-100</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7888,11 +6938,6 @@
       <c r="H191" t="n">
         <v>85</v>
       </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>80-100</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7927,11 +6972,6 @@
       <c r="H192" t="n">
         <v>72</v>
       </c>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7966,11 +7006,6 @@
       <c r="H193" t="n">
         <v>68</v>
       </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -8005,11 +7040,6 @@
       <c r="H194" t="n">
         <v>62</v>
       </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -8044,11 +7074,6 @@
       <c r="H195" t="n">
         <v>63</v>
       </c>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -8083,11 +7108,6 @@
       <c r="H196" t="n">
         <v>78</v>
       </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -8122,11 +7142,6 @@
       <c r="H197" t="n">
         <v>86</v>
       </c>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>80-100</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -8161,11 +7176,6 @@
       <c r="H198" t="n">
         <v>73</v>
       </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -8200,11 +7210,6 @@
       <c r="H199" t="n">
         <v>64</v>
       </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -8239,11 +7244,6 @@
       <c r="H200" t="n">
         <v>70</v>
       </c>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>60-80</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -8277,11 +7277,6 @@
       </c>
       <c r="H201" t="n">
         <v>51</v>
-      </c>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>40-60</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/deanonymisation-phase2/data/new/variable_adjusted_filtered_data_registerZ.xlsx
+++ b/deanonymisation-phase2/data/new/variable_adjusted_filtered_data_registerZ.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,6 +478,11 @@
           <t>age</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>age_group</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -512,6 +517,11 @@
       <c r="H2" t="n">
         <v>21</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -546,6 +556,11 @@
       <c r="H3" t="n">
         <v>22</v>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -580,6 +595,11 @@
       <c r="H4" t="n">
         <v>21</v>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -614,6 +634,11 @@
       <c r="H5" t="n">
         <v>22</v>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -648,6 +673,11 @@
       <c r="H6" t="n">
         <v>22</v>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -682,6 +712,11 @@
       <c r="H7" t="n">
         <v>29</v>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -716,6 +751,11 @@
       <c r="H8" t="n">
         <v>30</v>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -750,6 +790,11 @@
       <c r="H9" t="n">
         <v>34</v>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -784,6 +829,11 @@
       <c r="H10" t="n">
         <v>36</v>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -818,6 +868,11 @@
       <c r="H11" t="n">
         <v>30</v>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -852,6 +907,11 @@
       <c r="H12" t="n">
         <v>28</v>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -886,6 +946,11 @@
       <c r="H13" t="n">
         <v>32</v>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -920,6 +985,11 @@
       <c r="H14" t="n">
         <v>29</v>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -954,6 +1024,11 @@
       <c r="H15" t="n">
         <v>33</v>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -988,6 +1063,11 @@
       <c r="H16" t="n">
         <v>31</v>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1022,6 +1102,11 @@
       <c r="H17" t="n">
         <v>35</v>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1056,6 +1141,11 @@
       <c r="H18" t="n">
         <v>32</v>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1090,6 +1180,11 @@
       <c r="H19" t="n">
         <v>31</v>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1124,6 +1219,11 @@
       <c r="H20" t="n">
         <v>35</v>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1158,6 +1258,11 @@
       <c r="H21" t="n">
         <v>34</v>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1192,6 +1297,11 @@
       <c r="H22" t="n">
         <v>34</v>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1226,6 +1336,11 @@
       <c r="H23" t="n">
         <v>33</v>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1260,6 +1375,11 @@
       <c r="H24" t="n">
         <v>29</v>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1294,6 +1414,11 @@
       <c r="H25" t="n">
         <v>34</v>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1328,6 +1453,11 @@
       <c r="H26" t="n">
         <v>35</v>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1362,6 +1492,11 @@
       <c r="H27" t="n">
         <v>36</v>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1396,6 +1531,11 @@
       <c r="H28" t="n">
         <v>31</v>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1430,6 +1570,11 @@
       <c r="H29" t="n">
         <v>33</v>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1464,6 +1609,11 @@
       <c r="H30" t="n">
         <v>31</v>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1498,6 +1648,11 @@
       <c r="H31" t="n">
         <v>27</v>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1532,6 +1687,11 @@
       <c r="H32" t="n">
         <v>36</v>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1566,6 +1726,11 @@
       <c r="H33" t="n">
         <v>46</v>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1600,6 +1765,11 @@
       <c r="H34" t="n">
         <v>44</v>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1634,6 +1804,11 @@
       <c r="H35" t="n">
         <v>43</v>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1668,6 +1843,11 @@
       <c r="H36" t="n">
         <v>38</v>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1702,6 +1882,11 @@
       <c r="H37" t="n">
         <v>41</v>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1736,6 +1921,11 @@
       <c r="H38" t="n">
         <v>39</v>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1770,6 +1960,11 @@
       <c r="H39" t="n">
         <v>42</v>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1804,6 +1999,11 @@
       <c r="H40" t="n">
         <v>41</v>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1838,6 +2038,11 @@
       <c r="H41" t="n">
         <v>41</v>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1872,6 +2077,11 @@
       <c r="H42" t="n">
         <v>38</v>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1906,6 +2116,11 @@
       <c r="H43" t="n">
         <v>39</v>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1940,6 +2155,11 @@
       <c r="H44" t="n">
         <v>40</v>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1974,6 +2194,11 @@
       <c r="H45" t="n">
         <v>40</v>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2008,6 +2233,11 @@
       <c r="H46" t="n">
         <v>39</v>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2042,6 +2272,11 @@
       <c r="H47" t="n">
         <v>50</v>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2076,6 +2311,11 @@
       <c r="H48" t="n">
         <v>50</v>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2110,6 +2350,11 @@
       <c r="H49" t="n">
         <v>53</v>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2144,6 +2389,11 @@
       <c r="H50" t="n">
         <v>52</v>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2178,6 +2428,11 @@
       <c r="H51" t="n">
         <v>51</v>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2212,6 +2467,11 @@
       <c r="H52" t="n">
         <v>51</v>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2246,6 +2506,11 @@
       <c r="H53" t="n">
         <v>55</v>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2280,6 +2545,11 @@
       <c r="H54" t="n">
         <v>56</v>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2314,6 +2584,11 @@
       <c r="H55" t="n">
         <v>53</v>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2348,6 +2623,11 @@
       <c r="H56" t="n">
         <v>47</v>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2382,6 +2662,11 @@
       <c r="H57" t="n">
         <v>47</v>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2416,6 +2701,11 @@
       <c r="H58" t="n">
         <v>47</v>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2450,6 +2740,11 @@
       <c r="H59" t="n">
         <v>50</v>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2484,6 +2779,11 @@
       <c r="H60" t="n">
         <v>63</v>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2518,6 +2818,11 @@
       <c r="H61" t="n">
         <v>61</v>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2552,6 +2857,11 @@
       <c r="H62" t="n">
         <v>63</v>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2586,6 +2896,11 @@
       <c r="H63" t="n">
         <v>63</v>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2620,6 +2935,11 @@
       <c r="H64" t="n">
         <v>58</v>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2654,6 +2974,11 @@
       <c r="H65" t="n">
         <v>58</v>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2688,6 +3013,11 @@
       <c r="H66" t="n">
         <v>61</v>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2722,6 +3052,11 @@
       <c r="H67" t="n">
         <v>69</v>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2756,6 +3091,11 @@
       <c r="H68" t="n">
         <v>73</v>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2790,6 +3130,11 @@
       <c r="H69" t="n">
         <v>31</v>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2824,6 +3169,11 @@
       <c r="H70" t="n">
         <v>25</v>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2858,6 +3208,11 @@
       <c r="H71" t="n">
         <v>22</v>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2892,6 +3247,11 @@
       <c r="H72" t="n">
         <v>25</v>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2926,6 +3286,11 @@
       <c r="H73" t="n">
         <v>22</v>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2960,6 +3325,11 @@
       <c r="H74" t="n">
         <v>20</v>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2994,6 +3364,11 @@
       <c r="H75" t="n">
         <v>29</v>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3028,6 +3403,11 @@
       <c r="H76" t="n">
         <v>21</v>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3062,6 +3442,11 @@
       <c r="H77" t="n">
         <v>24</v>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3096,6 +3481,11 @@
       <c r="H78" t="n">
         <v>25</v>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3130,6 +3520,11 @@
       <c r="H79" t="n">
         <v>30</v>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3164,6 +3559,11 @@
       <c r="H80" t="n">
         <v>28</v>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3198,6 +3598,11 @@
       <c r="H81" t="n">
         <v>29</v>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3232,6 +3637,11 @@
       <c r="H82" t="n">
         <v>23</v>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3266,6 +3676,11 @@
       <c r="H83" t="n">
         <v>20</v>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3300,6 +3715,11 @@
       <c r="H84" t="n">
         <v>21</v>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3334,6 +3754,11 @@
       <c r="H85" t="n">
         <v>20</v>
       </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3368,6 +3793,11 @@
       <c r="H86" t="n">
         <v>29</v>
       </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3402,6 +3832,7 @@
       <c r="H87" t="n">
         <v>19</v>
       </c>
+      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3436,6 +3867,11 @@
       <c r="H88" t="n">
         <v>29</v>
       </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3470,6 +3906,11 @@
       <c r="H89" t="n">
         <v>32</v>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3504,6 +3945,11 @@
       <c r="H90" t="n">
         <v>36</v>
       </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3538,6 +3984,11 @@
       <c r="H91" t="n">
         <v>45</v>
       </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3572,6 +4023,11 @@
       <c r="H92" t="n">
         <v>41</v>
       </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3606,6 +4062,11 @@
       <c r="H93" t="n">
         <v>31</v>
       </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3640,6 +4101,11 @@
       <c r="H94" t="n">
         <v>36</v>
       </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3674,6 +4140,11 @@
       <c r="H95" t="n">
         <v>37</v>
       </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3708,6 +4179,11 @@
       <c r="H96" t="n">
         <v>46</v>
       </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3742,6 +4218,11 @@
       <c r="H97" t="n">
         <v>40</v>
       </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3776,6 +4257,11 @@
       <c r="H98" t="n">
         <v>32</v>
       </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3810,6 +4296,11 @@
       <c r="H99" t="n">
         <v>36</v>
       </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3844,6 +4335,11 @@
       <c r="H100" t="n">
         <v>36</v>
       </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3878,6 +4374,11 @@
       <c r="H101" t="n">
         <v>35</v>
       </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3912,6 +4413,11 @@
       <c r="H102" t="n">
         <v>42</v>
       </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3946,6 +4452,11 @@
       <c r="H103" t="n">
         <v>39</v>
       </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3980,6 +4491,11 @@
       <c r="H104" t="n">
         <v>40</v>
       </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4014,6 +4530,11 @@
       <c r="H105" t="n">
         <v>37</v>
       </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4048,6 +4569,11 @@
       <c r="H106" t="n">
         <v>41</v>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4082,6 +4608,11 @@
       <c r="H107" t="n">
         <v>41</v>
       </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4116,6 +4647,11 @@
       <c r="H108" t="n">
         <v>39</v>
       </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4150,6 +4686,11 @@
       <c r="H109" t="n">
         <v>32</v>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4184,6 +4725,11 @@
       <c r="H110" t="n">
         <v>41</v>
       </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4218,6 +4764,11 @@
       <c r="H111" t="n">
         <v>38</v>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4252,6 +4803,11 @@
       <c r="H112" t="n">
         <v>44</v>
       </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4286,6 +4842,11 @@
       <c r="H113" t="n">
         <v>36</v>
       </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>20-40</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4320,6 +4881,11 @@
       <c r="H114" t="n">
         <v>56</v>
       </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4354,6 +4920,11 @@
       <c r="H115" t="n">
         <v>65</v>
       </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4388,6 +4959,11 @@
       <c r="H116" t="n">
         <v>66</v>
       </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4422,6 +4998,11 @@
       <c r="H117" t="n">
         <v>63</v>
       </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4456,6 +5037,11 @@
       <c r="H118" t="n">
         <v>64</v>
       </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4490,6 +5076,11 @@
       <c r="H119" t="n">
         <v>66</v>
       </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4524,6 +5115,11 @@
       <c r="H120" t="n">
         <v>50</v>
       </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4558,6 +5154,11 @@
       <c r="H121" t="n">
         <v>52</v>
       </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4592,6 +5193,11 @@
       <c r="H122" t="n">
         <v>62</v>
       </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4626,6 +5232,11 @@
       <c r="H123" t="n">
         <v>58</v>
       </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4660,6 +5271,11 @@
       <c r="H124" t="n">
         <v>61</v>
       </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4694,6 +5310,11 @@
       <c r="H125" t="n">
         <v>47</v>
       </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4728,6 +5349,11 @@
       <c r="H126" t="n">
         <v>49</v>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4762,6 +5388,11 @@
       <c r="H127" t="n">
         <v>56</v>
       </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4796,6 +5427,11 @@
       <c r="H128" t="n">
         <v>64</v>
       </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4830,6 +5466,11 @@
       <c r="H129" t="n">
         <v>49</v>
       </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4864,6 +5505,11 @@
       <c r="H130" t="n">
         <v>54</v>
       </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4898,6 +5544,11 @@
       <c r="H131" t="n">
         <v>55</v>
       </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4932,6 +5583,11 @@
       <c r="H132" t="n">
         <v>55</v>
       </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4966,6 +5622,11 @@
       <c r="H133" t="n">
         <v>48</v>
       </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5000,6 +5661,11 @@
       <c r="H134" t="n">
         <v>65</v>
       </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5034,6 +5700,11 @@
       <c r="H135" t="n">
         <v>66</v>
       </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5068,6 +5739,11 @@
       <c r="H136" t="n">
         <v>47</v>
       </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5102,6 +5778,11 @@
       <c r="H137" t="n">
         <v>65</v>
       </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5136,6 +5817,11 @@
       <c r="H138" t="n">
         <v>61</v>
       </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5170,6 +5856,11 @@
       <c r="H139" t="n">
         <v>47</v>
       </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5204,6 +5895,11 @@
       <c r="H140" t="n">
         <v>46</v>
       </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5238,6 +5934,11 @@
       <c r="H141" t="n">
         <v>52</v>
       </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5272,6 +5973,11 @@
       <c r="H142" t="n">
         <v>59</v>
       </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5306,6 +6012,11 @@
       <c r="H143" t="n">
         <v>66</v>
       </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5340,6 +6051,11 @@
       <c r="H144" t="n">
         <v>65</v>
       </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5374,6 +6090,11 @@
       <c r="H145" t="n">
         <v>55</v>
       </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5408,6 +6129,11 @@
       <c r="H146" t="n">
         <v>58</v>
       </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5442,6 +6168,11 @@
       <c r="H147" t="n">
         <v>56</v>
       </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5476,6 +6207,11 @@
       <c r="H148" t="n">
         <v>48</v>
       </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5510,6 +6246,11 @@
       <c r="H149" t="n">
         <v>57</v>
       </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5544,6 +6285,11 @@
       <c r="H150" t="n">
         <v>48</v>
       </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5578,6 +6324,11 @@
       <c r="H151" t="n">
         <v>65</v>
       </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5612,6 +6363,11 @@
       <c r="H152" t="n">
         <v>57</v>
       </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5646,6 +6402,11 @@
       <c r="H153" t="n">
         <v>64</v>
       </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5680,6 +6441,11 @@
       <c r="H154" t="n">
         <v>51</v>
       </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5714,6 +6480,11 @@
       <c r="H155" t="n">
         <v>51</v>
       </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5748,6 +6519,11 @@
       <c r="H156" t="n">
         <v>47</v>
       </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5782,6 +6558,11 @@
       <c r="H157" t="n">
         <v>52</v>
       </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5816,6 +6597,11 @@
       <c r="H158" t="n">
         <v>47</v>
       </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -5850,6 +6636,11 @@
       <c r="H159" t="n">
         <v>65</v>
       </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -5884,6 +6675,11 @@
       <c r="H160" t="n">
         <v>50</v>
       </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -5918,6 +6714,11 @@
       <c r="H161" t="n">
         <v>47</v>
       </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -5952,6 +6753,11 @@
       <c r="H162" t="n">
         <v>59</v>
       </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5986,6 +6792,11 @@
       <c r="H163" t="n">
         <v>65</v>
       </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6020,6 +6831,11 @@
       <c r="H164" t="n">
         <v>78</v>
       </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6054,6 +6870,11 @@
       <c r="H165" t="n">
         <v>42</v>
       </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6088,6 +6909,11 @@
       <c r="H166" t="n">
         <v>53</v>
       </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6122,6 +6948,11 @@
       <c r="H167" t="n">
         <v>99</v>
       </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6156,6 +6987,11 @@
       <c r="H168" t="n">
         <v>67</v>
       </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6190,6 +7026,11 @@
       <c r="H169" t="n">
         <v>62</v>
       </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6224,6 +7065,11 @@
       <c r="H170" t="n">
         <v>68</v>
       </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6258,6 +7104,11 @@
       <c r="H171" t="n">
         <v>75</v>
       </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6292,6 +7143,11 @@
       <c r="H172" t="n">
         <v>64</v>
       </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6326,6 +7182,11 @@
       <c r="H173" t="n">
         <v>58</v>
       </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6360,6 +7221,11 @@
       <c r="H174" t="n">
         <v>77</v>
       </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6394,6 +7260,11 @@
       <c r="H175" t="n">
         <v>74</v>
       </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6428,6 +7299,11 @@
       <c r="H176" t="n">
         <v>91</v>
       </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6462,6 +7338,11 @@
       <c r="H177" t="n">
         <v>81</v>
       </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6496,6 +7377,11 @@
       <c r="H178" t="n">
         <v>63</v>
       </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6530,6 +7416,11 @@
       <c r="H179" t="n">
         <v>77</v>
       </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6564,6 +7455,11 @@
       <c r="H180" t="n">
         <v>55</v>
       </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6598,6 +7494,11 @@
       <c r="H181" t="n">
         <v>91</v>
       </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6632,6 +7533,11 @@
       <c r="H182" t="n">
         <v>81</v>
       </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6666,6 +7572,11 @@
       <c r="H183" t="n">
         <v>76</v>
       </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6700,6 +7611,11 @@
       <c r="H184" t="n">
         <v>96</v>
       </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6734,6 +7650,11 @@
       <c r="H185" t="n">
         <v>74</v>
       </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6768,6 +7689,11 @@
       <c r="H186" t="n">
         <v>71</v>
       </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6802,6 +7728,11 @@
       <c r="H187" t="n">
         <v>83</v>
       </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6836,6 +7767,11 @@
       <c r="H188" t="n">
         <v>84</v>
       </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6870,6 +7806,11 @@
       <c r="H189" t="n">
         <v>47</v>
       </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6904,6 +7845,11 @@
       <c r="H190" t="n">
         <v>95</v>
       </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6938,6 +7884,11 @@
       <c r="H191" t="n">
         <v>85</v>
       </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6972,6 +7923,11 @@
       <c r="H192" t="n">
         <v>72</v>
       </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7006,6 +7962,11 @@
       <c r="H193" t="n">
         <v>68</v>
       </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7040,6 +8001,11 @@
       <c r="H194" t="n">
         <v>62</v>
       </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7074,6 +8040,11 @@
       <c r="H195" t="n">
         <v>63</v>
       </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7108,6 +8079,11 @@
       <c r="H196" t="n">
         <v>78</v>
       </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7142,6 +8118,11 @@
       <c r="H197" t="n">
         <v>86</v>
       </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7176,6 +8157,11 @@
       <c r="H198" t="n">
         <v>73</v>
       </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7210,6 +8196,11 @@
       <c r="H199" t="n">
         <v>64</v>
       </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7244,6 +8235,11 @@
       <c r="H200" t="n">
         <v>70</v>
       </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>60+</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7277,6 +8273,11 @@
       </c>
       <c r="H201" t="n">
         <v>51</v>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>40-60</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/deanonymisation-phase2/data/new/variable_adjusted_filtered_data_registerZ.xlsx
+++ b/deanonymisation-phase2/data/new/variable_adjusted_filtered_data_registerZ.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,35 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>dob</t>
+          <t>zip</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>zip</t>
+          <t>citizenship</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>citizenship</t>
+          <t>marital_status</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>marital_status</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>last_voted</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>age_group</t>
         </is>
@@ -495,29 +476,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>37841</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>2100</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21</v>
-      </c>
-      <c r="I2" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -534,29 +506,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>37308</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>2200</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -573,29 +536,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>37775</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>2200</v>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21</v>
-      </c>
-      <c r="I4" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -612,29 +566,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>37519</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>2100</v>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>22</v>
-      </c>
-      <c r="I5" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -651,29 +596,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>37291</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>2100</v>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>22</v>
-      </c>
-      <c r="I6" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -690,29 +626,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>34839</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" t="n">
         <v>2100</v>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
-      </c>
-      <c r="I7" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -729,29 +656,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>34531</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>2200</v>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>30</v>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -768,29 +686,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>32930</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9" t="n">
         <v>2200</v>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>34</v>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -807,29 +716,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>32366</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>2300</v>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>36</v>
-      </c>
-      <c r="I10" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -846,29 +746,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>34475</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>2200</v>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>30</v>
-      </c>
-      <c r="I11" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -885,29 +776,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>35169</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>2100</v>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>28</v>
-      </c>
-      <c r="I12" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -924,29 +806,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>33605</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="n">
         <v>2300</v>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>32</v>
-      </c>
-      <c r="I13" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -963,29 +836,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>34962</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" t="n">
         <v>2300</v>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>29</v>
-      </c>
-      <c r="I14" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1002,29 +866,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>33351</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>2100</v>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>33</v>
-      </c>
-      <c r="I15" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1041,29 +896,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>34004</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>2400</v>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>31</v>
-      </c>
-      <c r="I16" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1080,29 +926,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>32595</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>2400</v>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>35</v>
-      </c>
-      <c r="I17" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1119,29 +956,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>33950</v>
-      </c>
-      <c r="D18" t="n">
+      <c r="C18" t="n">
         <v>2100</v>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>32</v>
-      </c>
-      <c r="I18" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1158,29 +986,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>34324</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>2300</v>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>31</v>
-      </c>
-      <c r="I19" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1197,29 +1016,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>32594</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>2200</v>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>35</v>
-      </c>
-      <c r="I20" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1236,29 +1046,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>33049</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="C21" t="n">
         <v>2300</v>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>34</v>
-      </c>
-      <c r="I21" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1275,29 +1076,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>32910</v>
-      </c>
-      <c r="D22" t="n">
+      <c r="C22" t="n">
         <v>2400</v>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>34</v>
-      </c>
-      <c r="I22" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1314,29 +1106,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>33422</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="C23" t="n">
         <v>2100</v>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>33</v>
-      </c>
-      <c r="I23" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1353,29 +1136,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>34723</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="C24" t="n">
         <v>2200</v>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>29</v>
-      </c>
-      <c r="I24" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1392,29 +1166,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>33070</v>
-      </c>
-      <c r="D25" t="n">
+      <c r="C25" t="n">
         <v>2200</v>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>34</v>
-      </c>
-      <c r="I25" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1431,29 +1196,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>32844</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="C26" t="n">
         <v>2400</v>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>35</v>
-      </c>
-      <c r="I26" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1470,29 +1226,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>32299</v>
-      </c>
-      <c r="D27" t="n">
+      <c r="C27" t="n">
         <v>2100</v>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>36</v>
-      </c>
-      <c r="I27" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1509,29 +1256,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>33987</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28" t="n">
         <v>2200</v>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>31</v>
-      </c>
-      <c r="I28" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1548,29 +1286,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>33499</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29" t="n">
         <v>2100</v>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>33</v>
-      </c>
-      <c r="I29" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1587,29 +1316,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>34058</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30" t="n">
         <v>2300</v>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>31</v>
-      </c>
-      <c r="I30" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1626,29 +1346,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>35644</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
         <v>2100</v>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>27</v>
-      </c>
-      <c r="I31" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1665,29 +1376,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>32470</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32" t="n">
         <v>2400</v>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
-      <c r="H32" t="n">
-        <v>36</v>
-      </c>
-      <c r="I32" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1704,29 +1406,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>28577</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33" t="n">
         <v>2300</v>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>46</v>
-      </c>
-      <c r="I33" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1743,29 +1436,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>29282</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34" t="n">
         <v>2100</v>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>44</v>
-      </c>
-      <c r="I34" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1782,29 +1466,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>29695</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
         <v>2200</v>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>43</v>
-      </c>
-      <c r="I35" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1821,29 +1496,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>31486</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36" t="n">
         <v>2200</v>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>38</v>
-      </c>
-      <c r="I36" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1860,29 +1526,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>30353</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C37" t="n">
         <v>2100</v>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>41</v>
-      </c>
-      <c r="I37" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1899,29 +1556,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>31245</v>
-      </c>
-      <c r="D38" t="n">
+      <c r="C38" t="n">
         <v>2100</v>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>39</v>
-      </c>
-      <c r="I38" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1938,29 +1586,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>30122</v>
-      </c>
-      <c r="D39" t="n">
+      <c r="C39" t="n">
         <v>2300</v>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>42</v>
-      </c>
-      <c r="I39" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1977,29 +1616,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>30425</v>
-      </c>
-      <c r="D40" t="n">
+      <c r="C40" t="n">
         <v>2400</v>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>41</v>
-      </c>
-      <c r="I40" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2016,29 +1646,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>30660</v>
-      </c>
-      <c r="D41" t="n">
+      <c r="C41" t="n">
         <v>2200</v>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>41</v>
-      </c>
-      <c r="I41" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2055,29 +1676,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>31454</v>
-      </c>
-      <c r="D42" t="n">
+      <c r="C42" t="n">
         <v>2100</v>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>38</v>
-      </c>
-      <c r="I42" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2094,29 +1706,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>31162</v>
-      </c>
-      <c r="D43" t="n">
+      <c r="C43" t="n">
         <v>2400</v>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>39</v>
-      </c>
-      <c r="I43" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2133,29 +1736,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>30997</v>
-      </c>
-      <c r="D44" t="n">
+      <c r="C44" t="n">
         <v>2400</v>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>40</v>
-      </c>
-      <c r="I44" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2172,29 +1766,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>30972</v>
-      </c>
-      <c r="D45" t="n">
+      <c r="C45" t="n">
         <v>2300</v>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>40</v>
-      </c>
-      <c r="I45" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2211,29 +1796,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>31367</v>
-      </c>
-      <c r="D46" t="n">
+      <c r="C46" t="n">
         <v>2300</v>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>39</v>
-      </c>
-      <c r="I46" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2250,29 +1826,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>27149</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="C47" t="n">
         <v>2400</v>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>50</v>
-      </c>
-      <c r="I47" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2289,29 +1856,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>27391</v>
-      </c>
-      <c r="D48" t="n">
+      <c r="C48" t="n">
         <v>2400</v>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>50</v>
-      </c>
-      <c r="I48" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2328,29 +1886,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>26213</v>
-      </c>
-      <c r="D49" t="n">
+      <c r="C49" t="n">
         <v>2200</v>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>53</v>
-      </c>
-      <c r="I49" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2367,29 +1916,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>26560</v>
-      </c>
-      <c r="D50" t="n">
+      <c r="C50" t="n">
         <v>2400</v>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>52</v>
-      </c>
-      <c r="I50" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2406,29 +1946,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>26734</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="C51" t="n">
         <v>2300</v>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="n">
-        <v>51</v>
-      </c>
-      <c r="I51" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2445,29 +1976,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>26714</v>
-      </c>
-      <c r="D52" t="n">
+      <c r="C52" t="n">
         <v>2400</v>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="n">
-        <v>51</v>
-      </c>
-      <c r="I52" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2484,29 +2006,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>25416</v>
-      </c>
-      <c r="D53" t="n">
+      <c r="C53" t="n">
         <v>2300</v>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>55</v>
-      </c>
-      <c r="I53" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2523,29 +2036,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>25129</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="C54" t="n">
         <v>2300</v>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>56</v>
-      </c>
-      <c r="I54" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2562,29 +2066,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>26070</v>
-      </c>
-      <c r="D55" t="n">
+      <c r="C55" t="n">
         <v>2400</v>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>53</v>
-      </c>
-      <c r="I55" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2601,29 +2096,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>28133</v>
-      </c>
-      <c r="D56" t="n">
+      <c r="C56" t="n">
         <v>2200</v>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>47</v>
-      </c>
-      <c r="I56" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2640,29 +2126,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>28442</v>
-      </c>
-      <c r="D57" t="n">
+      <c r="C57" t="n">
         <v>2300</v>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>47</v>
-      </c>
-      <c r="I57" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2679,29 +2156,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>28372</v>
-      </c>
-      <c r="D58" t="n">
+      <c r="C58" t="n">
         <v>2200</v>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>47</v>
-      </c>
-      <c r="I58" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2718,29 +2186,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>27107</v>
-      </c>
-      <c r="D59" t="n">
+      <c r="C59" t="n">
         <v>2200</v>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>50</v>
-      </c>
-      <c r="I59" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2757,29 +2216,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>22636</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="C60" t="n">
         <v>2300</v>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>63</v>
-      </c>
-      <c r="I60" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -2796,29 +2246,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>23298</v>
-      </c>
-      <c r="D61" t="n">
+      <c r="C61" t="n">
         <v>2200</v>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>61</v>
-      </c>
-      <c r="I61" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -2835,29 +2276,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>22378</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="C62" t="n">
         <v>2400</v>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
-        <is>
-          <t>Widowed</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>63</v>
-      </c>
-      <c r="I62" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -2874,29 +2306,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>22468</v>
-      </c>
-      <c r="D63" t="n">
+      <c r="C63" t="n">
         <v>2200</v>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>63</v>
-      </c>
-      <c r="I63" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -2913,29 +2336,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>24224</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="C64" t="n">
         <v>2200</v>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>58</v>
-      </c>
-      <c r="I64" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2952,29 +2366,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>24456</v>
-      </c>
-      <c r="D65" t="n">
+      <c r="C65" t="n">
         <v>2200</v>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
-        <v>1</v>
-      </c>
-      <c r="H65" t="n">
-        <v>58</v>
-      </c>
-      <c r="I65" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2991,29 +2396,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>23198</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="C66" t="n">
         <v>2200</v>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
-        <is>
-          <t>Widowed</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>61</v>
-      </c>
-      <c r="I66" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -3030,29 +2426,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>20105</v>
-      </c>
-      <c r="D67" t="n">
+      <c r="C67" t="n">
         <v>2400</v>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G67" t="n">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>69</v>
-      </c>
-      <c r="I67" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -3069,29 +2456,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>18800</v>
-      </c>
-      <c r="D68" t="n">
+      <c r="C68" t="n">
         <v>2100</v>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>73</v>
-      </c>
-      <c r="I68" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -3108,29 +2486,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>34189</v>
-      </c>
-      <c r="D69" t="n">
+      <c r="C69" t="n">
         <v>2300</v>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>31</v>
-      </c>
-      <c r="I69" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3147,29 +2516,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>36513</v>
-      </c>
-      <c r="D70" t="n">
+      <c r="C70" t="n">
         <v>2200</v>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>25</v>
-      </c>
-      <c r="I70" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3186,29 +2546,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>37349</v>
-      </c>
-      <c r="D71" t="n">
+      <c r="C71" t="n">
         <v>2300</v>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>22</v>
-      </c>
-      <c r="I71" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3225,29 +2576,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>36272</v>
-      </c>
-      <c r="D72" t="n">
+      <c r="C72" t="n">
         <v>2100</v>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>25</v>
-      </c>
-      <c r="I72" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3264,29 +2606,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>37574</v>
-      </c>
-      <c r="D73" t="n">
+      <c r="C73" t="n">
         <v>2200</v>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>22</v>
-      </c>
-      <c r="I73" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3303,29 +2636,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>38323</v>
-      </c>
-      <c r="D74" t="n">
+      <c r="C74" t="n">
         <v>2200</v>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>20</v>
-      </c>
-      <c r="I74" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3342,29 +2666,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>34866</v>
-      </c>
-      <c r="D75" t="n">
+      <c r="C75" t="n">
         <v>2100</v>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>29</v>
-      </c>
-      <c r="I75" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3381,29 +2696,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>37657</v>
-      </c>
-      <c r="D76" t="n">
+      <c r="C76" t="n">
         <v>2300</v>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>21</v>
-      </c>
-      <c r="I76" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3420,29 +2726,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>36811</v>
-      </c>
-      <c r="D77" t="n">
+      <c r="C77" t="n">
         <v>2100</v>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>24</v>
-      </c>
-      <c r="I77" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3459,29 +2756,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>36460</v>
-      </c>
-      <c r="D78" t="n">
+      <c r="C78" t="n">
         <v>2100</v>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>25</v>
-      </c>
-      <c r="I78" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3498,29 +2786,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>34643</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="C79" t="n">
         <v>2200</v>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>30</v>
-      </c>
-      <c r="I79" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3537,29 +2816,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>35127</v>
-      </c>
-      <c r="D80" t="n">
+      <c r="C80" t="n">
         <v>2300</v>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>28</v>
-      </c>
-      <c r="I80" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3576,29 +2846,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>34776</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="C81" t="n">
         <v>2100</v>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>29</v>
-      </c>
-      <c r="I81" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3615,29 +2876,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>37218</v>
-      </c>
-      <c r="D82" t="n">
+      <c r="C82" t="n">
         <v>2100</v>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>23</v>
-      </c>
-      <c r="I82" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3654,29 +2906,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>38027</v>
-      </c>
-      <c r="D83" t="n">
+      <c r="C83" t="n">
         <v>2300</v>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>20</v>
-      </c>
-      <c r="I83" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3693,29 +2936,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C84" s="2" t="n">
-        <v>37668</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="C84" t="n">
         <v>2100</v>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>21</v>
-      </c>
-      <c r="I84" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3732,29 +2966,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>38177</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C85" t="n">
         <v>2200</v>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>20</v>
-      </c>
-      <c r="I85" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3771,29 +2996,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>34966</v>
-      </c>
-      <c r="D86" t="n">
+      <c r="C86" t="n">
         <v>2100</v>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>29</v>
-      </c>
-      <c r="I86" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3810,29 +3026,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>38357</v>
-      </c>
-      <c r="D87" t="n">
+      <c r="C87" t="n">
         <v>2100</v>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>19</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+          <t>Not married</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3845,29 +3052,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>34817</v>
-      </c>
-      <c r="D88" t="n">
+      <c r="C88" t="n">
         <v>2300</v>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>29</v>
-      </c>
-      <c r="I88" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3884,29 +3082,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>33820</v>
-      </c>
-      <c r="D89" t="n">
+      <c r="C89" t="n">
         <v>2400</v>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>32</v>
-      </c>
-      <c r="I89" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3923,29 +3112,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>32295</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="C90" t="n">
         <v>2400</v>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>36</v>
-      </c>
-      <c r="I90" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3962,29 +3142,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>29041</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C91" t="n">
         <v>2400</v>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>45</v>
-      </c>
-      <c r="I91" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4001,29 +3172,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>30641</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C92" t="n">
         <v>2100</v>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>41</v>
-      </c>
-      <c r="I92" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4040,29 +3202,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>34029</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C93" t="n">
         <v>2200</v>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>31</v>
-      </c>
-      <c r="I93" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4079,29 +3232,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>32417</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C94" t="n">
         <v>2100</v>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>36</v>
-      </c>
-      <c r="I94" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4118,29 +3262,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>31875</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C95" t="n">
         <v>2100</v>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>37</v>
-      </c>
-      <c r="I95" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4157,29 +3292,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>28638</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="C96" t="n">
         <v>2400</v>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>46</v>
-      </c>
-      <c r="I96" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4196,29 +3322,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>30758</v>
-      </c>
-      <c r="D97" t="n">
+      <c r="C97" t="n">
         <v>2200</v>
       </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>40</v>
-      </c>
-      <c r="I97" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4235,29 +3352,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C98" s="2" t="n">
-        <v>33723</v>
-      </c>
-      <c r="D98" t="n">
+      <c r="C98" t="n">
         <v>2100</v>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>32</v>
-      </c>
-      <c r="I98" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4274,29 +3382,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>32226</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="C99" t="n">
         <v>2100</v>
       </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>36</v>
-      </c>
-      <c r="I99" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4313,29 +3412,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>32429</v>
-      </c>
-      <c r="D100" t="n">
+      <c r="C100" t="n">
         <v>2400</v>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>36</v>
-      </c>
-      <c r="I100" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4352,29 +3442,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>32737</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="C101" t="n">
         <v>2300</v>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>35</v>
-      </c>
-      <c r="I101" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4391,29 +3472,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C102" s="2" t="n">
-        <v>30213</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="C102" t="n">
         <v>2400</v>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" t="n">
-        <v>42</v>
-      </c>
-      <c r="I102" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4430,29 +3502,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C103" s="2" t="n">
-        <v>31156</v>
-      </c>
-      <c r="D103" t="n">
+      <c r="C103" t="n">
         <v>2100</v>
       </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" t="n">
-        <v>39</v>
-      </c>
-      <c r="I103" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4469,29 +3532,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C104" s="2" t="n">
-        <v>30761</v>
-      </c>
-      <c r="D104" t="n">
+      <c r="C104" t="n">
         <v>2200</v>
       </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H104" t="n">
-        <v>40</v>
-      </c>
-      <c r="I104" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4508,29 +3562,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C105" s="2" t="n">
-        <v>32017</v>
-      </c>
-      <c r="D105" t="n">
+      <c r="C105" t="n">
         <v>2100</v>
       </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G105" t="n">
-        <v>0</v>
-      </c>
-      <c r="H105" t="n">
-        <v>37</v>
-      </c>
-      <c r="I105" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4547,29 +3592,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C106" s="2" t="n">
-        <v>30547</v>
-      </c>
-      <c r="D106" t="n">
+      <c r="C106" t="n">
         <v>2200</v>
       </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H106" t="n">
-        <v>41</v>
-      </c>
-      <c r="I106" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4586,29 +3622,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C107" s="2" t="n">
-        <v>30459</v>
-      </c>
-      <c r="D107" t="n">
+      <c r="C107" t="n">
         <v>2300</v>
       </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" t="n">
-        <v>41</v>
-      </c>
-      <c r="I107" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4625,29 +3652,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C108" s="2" t="n">
-        <v>31358</v>
-      </c>
-      <c r="D108" t="n">
+      <c r="C108" t="n">
         <v>2100</v>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G108" t="n">
-        <v>0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>39</v>
-      </c>
-      <c r="I108" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4664,29 +3682,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C109" s="2" t="n">
-        <v>33888</v>
-      </c>
-      <c r="D109" t="n">
+      <c r="C109" t="n">
         <v>2100</v>
       </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G109" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>32</v>
-      </c>
-      <c r="I109" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4703,29 +3712,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C110" s="2" t="n">
-        <v>30623</v>
-      </c>
-      <c r="D110" t="n">
+      <c r="C110" t="n">
         <v>2400</v>
       </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>41</v>
-      </c>
-      <c r="I110" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4742,29 +3742,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C111" s="2" t="n">
-        <v>31428</v>
-      </c>
-      <c r="D111" t="n">
+      <c r="C111" t="n">
         <v>2300</v>
       </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>38</v>
-      </c>
-      <c r="I111" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4781,29 +3772,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C112" s="2" t="n">
-        <v>29459</v>
-      </c>
-      <c r="D112" t="n">
+      <c r="C112" t="n">
         <v>2300</v>
       </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G112" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" t="n">
-        <v>44</v>
-      </c>
-      <c r="I112" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4820,29 +3802,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C113" s="2" t="n">
-        <v>32182</v>
-      </c>
-      <c r="D113" t="n">
+      <c r="C113" t="n">
         <v>2400</v>
       </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>36</v>
-      </c>
-      <c r="I113" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -4859,29 +3832,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C114" s="2" t="n">
-        <v>24971</v>
-      </c>
-      <c r="D114" t="n">
+      <c r="C114" t="n">
         <v>2400</v>
       </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>56</v>
-      </c>
-      <c r="I114" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4898,29 +3862,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C115" s="2" t="n">
-        <v>21823</v>
-      </c>
-      <c r="D115" t="n">
+      <c r="C115" t="n">
         <v>2200</v>
       </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>65</v>
-      </c>
-      <c r="I115" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4937,29 +3892,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C116" s="2" t="n">
-        <v>21284</v>
-      </c>
-      <c r="D116" t="n">
+      <c r="C116" t="n">
         <v>2400</v>
       </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>66</v>
-      </c>
-      <c r="I116" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4976,29 +3922,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C117" s="2" t="n">
-        <v>22307</v>
-      </c>
-      <c r="D117" t="n">
+      <c r="C117" t="n">
         <v>2300</v>
       </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>63</v>
-      </c>
-      <c r="I117" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5015,29 +3952,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C118" s="2" t="n">
-        <v>22200</v>
-      </c>
-      <c r="D118" t="n">
+      <c r="C118" t="n">
         <v>2400</v>
       </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
-      <c r="H118" t="n">
-        <v>64</v>
-      </c>
-      <c r="I118" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5054,29 +3982,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C119" s="2" t="n">
-        <v>21485</v>
-      </c>
-      <c r="D119" t="n">
+      <c r="C119" t="n">
         <v>2400</v>
       </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>66</v>
-      </c>
-      <c r="I119" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5093,29 +4012,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C120" s="2" t="n">
-        <v>27211</v>
-      </c>
-      <c r="D120" t="n">
+      <c r="C120" t="n">
         <v>2200</v>
       </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
-      <c r="H120" t="n">
-        <v>50</v>
-      </c>
-      <c r="I120" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5132,29 +4042,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C121" s="2" t="n">
-        <v>26365</v>
-      </c>
-      <c r="D121" t="n">
+      <c r="C121" t="n">
         <v>2200</v>
       </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G121" t="n">
-        <v>0</v>
-      </c>
-      <c r="H121" t="n">
-        <v>52</v>
-      </c>
-      <c r="I121" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5171,29 +4072,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C122" s="2" t="n">
-        <v>22995</v>
-      </c>
-      <c r="D122" t="n">
+      <c r="C122" t="n">
         <v>2400</v>
       </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>0</v>
-      </c>
-      <c r="H122" t="n">
-        <v>62</v>
-      </c>
-      <c r="I122" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5210,29 +4102,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C123" s="2" t="n">
-        <v>24363</v>
-      </c>
-      <c r="D123" t="n">
+      <c r="C123" t="n">
         <v>2200</v>
       </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>0</v>
-      </c>
-      <c r="H123" t="n">
-        <v>58</v>
-      </c>
-      <c r="I123" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5249,29 +4132,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C124" s="2" t="n">
-        <v>23352</v>
-      </c>
-      <c r="D124" t="n">
+      <c r="C124" t="n">
         <v>2200</v>
       </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>0</v>
-      </c>
-      <c r="H124" t="n">
-        <v>61</v>
-      </c>
-      <c r="I124" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5288,29 +4162,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C125" s="2" t="n">
-        <v>28400</v>
-      </c>
-      <c r="D125" t="n">
+      <c r="C125" t="n">
         <v>2400</v>
       </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>0</v>
-      </c>
-      <c r="H125" t="n">
-        <v>47</v>
-      </c>
-      <c r="I125" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5327,29 +4192,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C126" s="2" t="n">
-        <v>27415</v>
-      </c>
-      <c r="D126" t="n">
+      <c r="C126" t="n">
         <v>2300</v>
       </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>0</v>
-      </c>
-      <c r="H126" t="n">
-        <v>49</v>
-      </c>
-      <c r="I126" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5366,29 +4222,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C127" s="2" t="n">
-        <v>25153</v>
-      </c>
-      <c r="D127" t="n">
+      <c r="C127" t="n">
         <v>2100</v>
       </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>0</v>
-      </c>
-      <c r="H127" t="n">
-        <v>56</v>
-      </c>
-      <c r="I127" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5405,29 +4252,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C128" s="2" t="n">
-        <v>22088</v>
-      </c>
-      <c r="D128" t="n">
+      <c r="C128" t="n">
         <v>2100</v>
       </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>0</v>
-      </c>
-      <c r="H128" t="n">
-        <v>64</v>
-      </c>
-      <c r="I128" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5444,29 +4282,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C129" s="2" t="n">
-        <v>27525</v>
-      </c>
-      <c r="D129" t="n">
+      <c r="C129" t="n">
         <v>2400</v>
       </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>0</v>
-      </c>
-      <c r="H129" t="n">
-        <v>49</v>
-      </c>
-      <c r="I129" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5483,29 +4312,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C130" s="2" t="n">
-        <v>25933</v>
-      </c>
-      <c r="D130" t="n">
+      <c r="C130" t="n">
         <v>2200</v>
       </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>0</v>
-      </c>
-      <c r="H130" t="n">
-        <v>54</v>
-      </c>
-      <c r="I130" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5522,29 +4342,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C131" s="2" t="n">
-        <v>25527</v>
-      </c>
-      <c r="D131" t="n">
+      <c r="C131" t="n">
         <v>2400</v>
       </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>0</v>
-      </c>
-      <c r="H131" t="n">
-        <v>55</v>
-      </c>
-      <c r="I131" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5561,29 +4372,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C132" s="2" t="n">
-        <v>25503</v>
-      </c>
-      <c r="D132" t="n">
+      <c r="C132" t="n">
         <v>2400</v>
       </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>0</v>
-      </c>
-      <c r="H132" t="n">
-        <v>55</v>
-      </c>
-      <c r="I132" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5600,29 +4402,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C133" s="2" t="n">
-        <v>27887</v>
-      </c>
-      <c r="D133" t="n">
+      <c r="C133" t="n">
         <v>2100</v>
       </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>48</v>
-      </c>
-      <c r="I133" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5639,29 +4432,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C134" s="2" t="n">
-        <v>21795</v>
-      </c>
-      <c r="D134" t="n">
+      <c r="C134" t="n">
         <v>2100</v>
       </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>0</v>
-      </c>
-      <c r="H134" t="n">
-        <v>65</v>
-      </c>
-      <c r="I134" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5678,29 +4462,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C135" s="2" t="n">
-        <v>21476</v>
-      </c>
-      <c r="D135" t="n">
+      <c r="C135" t="n">
         <v>2200</v>
       </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>66</v>
-      </c>
-      <c r="I135" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5717,29 +4492,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C136" s="2" t="n">
-        <v>28276</v>
-      </c>
-      <c r="D136" t="n">
+      <c r="C136" t="n">
         <v>2300</v>
       </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" t="n">
-        <v>47</v>
-      </c>
-      <c r="I136" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5756,29 +4522,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C137" s="2" t="n">
-        <v>21638</v>
-      </c>
-      <c r="D137" t="n">
+      <c r="C137" t="n">
         <v>2400</v>
       </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
-        <v>0</v>
-      </c>
-      <c r="H137" t="n">
-        <v>65</v>
-      </c>
-      <c r="I137" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5795,29 +4552,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C138" s="2" t="n">
-        <v>23214</v>
-      </c>
-      <c r="D138" t="n">
+      <c r="C138" t="n">
         <v>2400</v>
       </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>0</v>
-      </c>
-      <c r="H138" t="n">
-        <v>61</v>
-      </c>
-      <c r="I138" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5834,29 +4582,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C139" s="2" t="n">
-        <v>28469</v>
-      </c>
-      <c r="D139" t="n">
+      <c r="C139" t="n">
         <v>2200</v>
       </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>0</v>
-      </c>
-      <c r="H139" t="n">
-        <v>47</v>
-      </c>
-      <c r="I139" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5873,29 +4612,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C140" s="2" t="n">
-        <v>28539</v>
-      </c>
-      <c r="D140" t="n">
+      <c r="C140" t="n">
         <v>2400</v>
       </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
-        <v>0</v>
-      </c>
-      <c r="H140" t="n">
-        <v>46</v>
-      </c>
-      <c r="I140" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5912,29 +4642,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C141" s="2" t="n">
-        <v>26664</v>
-      </c>
-      <c r="D141" t="n">
+      <c r="C141" t="n">
         <v>2300</v>
       </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
-      <c r="H141" t="n">
-        <v>52</v>
-      </c>
-      <c r="I141" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5951,29 +4672,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C142" s="2" t="n">
-        <v>24028</v>
-      </c>
-      <c r="D142" t="n">
+      <c r="C142" t="n">
         <v>2400</v>
       </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>0</v>
-      </c>
-      <c r="H142" t="n">
-        <v>59</v>
-      </c>
-      <c r="I142" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5990,29 +4702,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C143" s="2" t="n">
-        <v>21288</v>
-      </c>
-      <c r="D143" t="n">
+      <c r="C143" t="n">
         <v>2400</v>
       </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>0</v>
-      </c>
-      <c r="H143" t="n">
-        <v>66</v>
-      </c>
-      <c r="I143" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6029,29 +4732,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C144" s="2" t="n">
-        <v>21783</v>
-      </c>
-      <c r="D144" t="n">
+      <c r="C144" t="n">
         <v>2400</v>
       </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>0</v>
-      </c>
-      <c r="H144" t="n">
-        <v>65</v>
-      </c>
-      <c r="I144" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6068,29 +4762,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C145" s="2" t="n">
-        <v>25242</v>
-      </c>
-      <c r="D145" t="n">
+      <c r="C145" t="n">
         <v>2200</v>
       </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>0</v>
-      </c>
-      <c r="H145" t="n">
-        <v>55</v>
-      </c>
-      <c r="I145" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6107,29 +4792,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C146" s="2" t="n">
-        <v>24392</v>
-      </c>
-      <c r="D146" t="n">
+      <c r="C146" t="n">
         <v>2400</v>
       </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
-        <v>0</v>
-      </c>
-      <c r="H146" t="n">
-        <v>58</v>
-      </c>
-      <c r="I146" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6146,29 +4822,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C147" s="2" t="n">
-        <v>25057</v>
-      </c>
-      <c r="D147" t="n">
+      <c r="C147" t="n">
         <v>2200</v>
       </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>0</v>
-      </c>
-      <c r="H147" t="n">
-        <v>56</v>
-      </c>
-      <c r="I147" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6185,29 +4852,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C148" s="2" t="n">
-        <v>27889</v>
-      </c>
-      <c r="D148" t="n">
+      <c r="C148" t="n">
         <v>2400</v>
       </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>0</v>
-      </c>
-      <c r="H148" t="n">
-        <v>48</v>
-      </c>
-      <c r="I148" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6224,29 +4882,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C149" s="2" t="n">
-        <v>24474</v>
-      </c>
-      <c r="D149" t="n">
+      <c r="C149" t="n">
         <v>2300</v>
       </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>0</v>
-      </c>
-      <c r="H149" t="n">
-        <v>57</v>
-      </c>
-      <c r="I149" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6263,29 +4912,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C150" s="2" t="n">
-        <v>27870</v>
-      </c>
-      <c r="D150" t="n">
+      <c r="C150" t="n">
         <v>2400</v>
       </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>0</v>
-      </c>
-      <c r="H150" t="n">
-        <v>48</v>
-      </c>
-      <c r="I150" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6302,29 +4942,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C151" s="2" t="n">
-        <v>21671</v>
-      </c>
-      <c r="D151" t="n">
+      <c r="C151" t="n">
         <v>2400</v>
       </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
-        <v>0</v>
-      </c>
-      <c r="H151" t="n">
-        <v>65</v>
-      </c>
-      <c r="I151" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6341,29 +4972,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C152" s="2" t="n">
-        <v>24721</v>
-      </c>
-      <c r="D152" t="n">
+      <c r="C152" t="n">
         <v>2400</v>
       </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
-        <v>0</v>
-      </c>
-      <c r="H152" t="n">
-        <v>57</v>
-      </c>
-      <c r="I152" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6380,29 +5002,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C153" s="2" t="n">
-        <v>22024</v>
-      </c>
-      <c r="D153" t="n">
+      <c r="C153" t="n">
         <v>2300</v>
       </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>0</v>
-      </c>
-      <c r="H153" t="n">
-        <v>64</v>
-      </c>
-      <c r="I153" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6419,29 +5032,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C154" s="2" t="n">
-        <v>26770</v>
-      </c>
-      <c r="D154" t="n">
+      <c r="C154" t="n">
         <v>2400</v>
       </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
-        <v>0</v>
-      </c>
-      <c r="H154" t="n">
-        <v>51</v>
-      </c>
-      <c r="I154" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6458,29 +5062,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C155" s="2" t="n">
-        <v>26992</v>
-      </c>
-      <c r="D155" t="n">
+      <c r="C155" t="n">
         <v>2400</v>
       </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
-        <v>0</v>
-      </c>
-      <c r="H155" t="n">
-        <v>51</v>
-      </c>
-      <c r="I155" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6497,29 +5092,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C156" s="2" t="n">
-        <v>28461</v>
-      </c>
-      <c r="D156" t="n">
+      <c r="C156" t="n">
         <v>2100</v>
       </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
-        <v>0</v>
-      </c>
-      <c r="H156" t="n">
-        <v>47</v>
-      </c>
-      <c r="I156" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6536,29 +5122,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C157" s="2" t="n">
-        <v>26650</v>
-      </c>
-      <c r="D157" t="n">
+      <c r="C157" t="n">
         <v>2300</v>
       </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
-        <v>0</v>
-      </c>
-      <c r="H157" t="n">
-        <v>52</v>
-      </c>
-      <c r="I157" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6575,29 +5152,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C158" s="2" t="n">
-        <v>28197</v>
-      </c>
-      <c r="D158" t="n">
+      <c r="C158" t="n">
         <v>2200</v>
       </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>0</v>
-      </c>
-      <c r="H158" t="n">
-        <v>47</v>
-      </c>
-      <c r="I158" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6614,29 +5182,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C159" s="2" t="n">
-        <v>21732</v>
-      </c>
-      <c r="D159" t="n">
+      <c r="C159" t="n">
         <v>2300</v>
       </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
-        <v>0</v>
-      </c>
-      <c r="H159" t="n">
-        <v>65</v>
-      </c>
-      <c r="I159" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6653,29 +5212,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C160" s="2" t="n">
-        <v>27306</v>
-      </c>
-      <c r="D160" t="n">
+      <c r="C160" t="n">
         <v>2300</v>
       </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
-        <v>0</v>
-      </c>
-      <c r="H160" t="n">
-        <v>50</v>
-      </c>
-      <c r="I160" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6692,29 +5242,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C161" s="2" t="n">
-        <v>28302</v>
-      </c>
-      <c r="D161" t="n">
+      <c r="C161" t="n">
         <v>2400</v>
       </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
-        <v>0</v>
-      </c>
-      <c r="H161" t="n">
-        <v>47</v>
-      </c>
-      <c r="I161" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6731,29 +5272,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C162" s="2" t="n">
-        <v>23763</v>
-      </c>
-      <c r="D162" t="n">
+      <c r="C162" t="n">
         <v>2400</v>
       </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
-        <v>0</v>
-      </c>
-      <c r="H162" t="n">
-        <v>59</v>
-      </c>
-      <c r="I162" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6770,29 +5302,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C163" s="2" t="n">
-        <v>21662</v>
-      </c>
-      <c r="D163" t="n">
+      <c r="C163" t="n">
         <v>2400</v>
       </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>0</v>
-      </c>
-      <c r="H163" t="n">
-        <v>65</v>
-      </c>
-      <c r="I163" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6809,29 +5332,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C164" s="2" t="n">
-        <v>17142</v>
-      </c>
-      <c r="D164" t="n">
+      <c r="C164" t="n">
         <v>2400</v>
       </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>0</v>
-      </c>
-      <c r="H164" t="n">
-        <v>78</v>
-      </c>
-      <c r="I164" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6848,29 +5362,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C165" s="2" t="n">
-        <v>29982</v>
-      </c>
-      <c r="D165" t="n">
+      <c r="C165" t="n">
         <v>2400</v>
       </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>0</v>
-      </c>
-      <c r="H165" t="n">
-        <v>42</v>
-      </c>
-      <c r="I165" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6887,29 +5392,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C166" s="2" t="n">
-        <v>26147</v>
-      </c>
-      <c r="D166" t="n">
+      <c r="C166" t="n">
         <v>2400</v>
       </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H166" t="n">
-        <v>53</v>
-      </c>
-      <c r="I166" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6926,29 +5422,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C167" s="2" t="n">
-        <v>9253</v>
-      </c>
-      <c r="D167" t="n">
+      <c r="C167" t="n">
         <v>2400</v>
       </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>0</v>
-      </c>
-      <c r="H167" t="n">
-        <v>99</v>
-      </c>
-      <c r="I167" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6965,29 +5452,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C168" s="2" t="n">
-        <v>21133</v>
-      </c>
-      <c r="D168" t="n">
+      <c r="C168" t="n">
         <v>2200</v>
       </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>0</v>
-      </c>
-      <c r="H168" t="n">
-        <v>67</v>
-      </c>
-      <c r="I168" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7004,29 +5482,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C169" s="2" t="n">
-        <v>22684</v>
-      </c>
-      <c r="D169" t="n">
+      <c r="C169" t="n">
         <v>2200</v>
       </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>0</v>
-      </c>
-      <c r="H169" t="n">
-        <v>62</v>
-      </c>
-      <c r="I169" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7043,29 +5512,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C170" s="2" t="n">
-        <v>20545</v>
-      </c>
-      <c r="D170" t="n">
+      <c r="C170" t="n">
         <v>2300</v>
       </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
-        <is>
-          <t>Widowed</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>0</v>
-      </c>
-      <c r="H170" t="n">
-        <v>68</v>
-      </c>
-      <c r="I170" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7082,29 +5542,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C171" s="2" t="n">
-        <v>18239</v>
-      </c>
-      <c r="D171" t="n">
+      <c r="C171" t="n">
         <v>2400</v>
       </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>0</v>
-      </c>
-      <c r="H171" t="n">
-        <v>75</v>
-      </c>
-      <c r="I171" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7121,29 +5572,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C172" s="2" t="n">
-        <v>22207</v>
-      </c>
-      <c r="D172" t="n">
+      <c r="C172" t="n">
         <v>2100</v>
       </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>0</v>
-      </c>
-      <c r="H172" t="n">
-        <v>64</v>
-      </c>
-      <c r="I172" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7160,29 +5602,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C173" s="2" t="n">
-        <v>24241</v>
-      </c>
-      <c r="D173" t="n">
+      <c r="C173" t="n">
         <v>2300</v>
       </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>0</v>
-      </c>
-      <c r="H173" t="n">
-        <v>58</v>
-      </c>
-      <c r="I173" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -7199,29 +5632,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C174" s="2" t="n">
-        <v>17410</v>
-      </c>
-      <c r="D174" t="n">
+      <c r="C174" t="n">
         <v>2300</v>
       </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>0</v>
-      </c>
-      <c r="H174" t="n">
-        <v>77</v>
-      </c>
-      <c r="I174" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7238,29 +5662,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C175" s="2" t="n">
-        <v>18454</v>
-      </c>
-      <c r="D175" t="n">
+      <c r="C175" t="n">
         <v>2300</v>
       </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>0</v>
-      </c>
-      <c r="H175" t="n">
-        <v>74</v>
-      </c>
-      <c r="I175" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7277,29 +5692,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C176" s="2" t="n">
-        <v>12277</v>
-      </c>
-      <c r="D176" t="n">
+      <c r="C176" t="n">
         <v>2200</v>
       </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
-        <is>
-          <t>Widowed</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
-        <v>0</v>
-      </c>
-      <c r="H176" t="n">
-        <v>91</v>
-      </c>
-      <c r="I176" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7316,29 +5722,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C177" s="2" t="n">
-        <v>15848</v>
-      </c>
-      <c r="D177" t="n">
+      <c r="C177" t="n">
         <v>2300</v>
       </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
-        <is>
-          <t>Widowed</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
-        <v>0</v>
-      </c>
-      <c r="H177" t="n">
-        <v>81</v>
-      </c>
-      <c r="I177" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7355,29 +5752,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C178" s="2" t="n">
-        <v>22579</v>
-      </c>
-      <c r="D178" t="n">
+      <c r="C178" t="n">
         <v>2300</v>
       </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
-        <v>0</v>
-      </c>
-      <c r="H178" t="n">
-        <v>63</v>
-      </c>
-      <c r="I178" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7394,29 +5782,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C179" s="2" t="n">
-        <v>17315</v>
-      </c>
-      <c r="D179" t="n">
+      <c r="C179" t="n">
         <v>2400</v>
       </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
-        <is>
-          <t>Widowed</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
-        <v>0</v>
-      </c>
-      <c r="H179" t="n">
-        <v>77</v>
-      </c>
-      <c r="I179" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7433,29 +5812,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C180" s="2" t="n">
-        <v>25324</v>
-      </c>
-      <c r="D180" t="n">
+      <c r="C180" t="n">
         <v>2400</v>
       </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>55</v>
-      </c>
-      <c r="I180" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -7472,29 +5842,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C181" s="2" t="n">
-        <v>12298</v>
-      </c>
-      <c r="D181" t="n">
+      <c r="C181" t="n">
         <v>2300</v>
       </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
-        <is>
-          <t>Widowed</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>0</v>
-      </c>
-      <c r="H181" t="n">
-        <v>91</v>
-      </c>
-      <c r="I181" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7511,29 +5872,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C182" s="2" t="n">
-        <v>15883</v>
-      </c>
-      <c r="D182" t="n">
+      <c r="C182" t="n">
         <v>2200</v>
       </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
-        <is>
-          <t>Widowed</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>0</v>
-      </c>
-      <c r="H182" t="n">
-        <v>81</v>
-      </c>
-      <c r="I182" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7550,29 +5902,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C183" s="2" t="n">
-        <v>17735</v>
-      </c>
-      <c r="D183" t="n">
+      <c r="C183" t="n">
         <v>2300</v>
       </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>0</v>
-      </c>
-      <c r="H183" t="n">
-        <v>76</v>
-      </c>
-      <c r="I183" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7589,29 +5932,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C184" s="2" t="n">
-        <v>10324</v>
-      </c>
-      <c r="D184" t="n">
+      <c r="C184" t="n">
         <v>2200</v>
       </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
-        <is>
-          <t>Widowed</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>0</v>
-      </c>
-      <c r="H184" t="n">
-        <v>96</v>
-      </c>
-      <c r="I184" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7628,29 +5962,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C185" s="2" t="n">
-        <v>18417</v>
-      </c>
-      <c r="D185" t="n">
+      <c r="C185" t="n">
         <v>2200</v>
       </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
-        <v>0</v>
-      </c>
-      <c r="H185" t="n">
-        <v>74</v>
-      </c>
-      <c r="I185" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7667,29 +5992,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C186" s="2" t="n">
-        <v>19722</v>
-      </c>
-      <c r="D186" t="n">
+      <c r="C186" t="n">
         <v>2200</v>
       </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
-        <v>0</v>
-      </c>
-      <c r="H186" t="n">
-        <v>71</v>
-      </c>
-      <c r="I186" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7706,29 +6022,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C187" s="2" t="n">
-        <v>15223</v>
-      </c>
-      <c r="D187" t="n">
+      <c r="C187" t="n">
         <v>2400</v>
       </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
-        <is>
-          <t>Widowed</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
-        <v>0</v>
-      </c>
-      <c r="H187" t="n">
-        <v>83</v>
-      </c>
-      <c r="I187" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7745,29 +6052,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C188" s="2" t="n">
-        <v>14624</v>
-      </c>
-      <c r="D188" t="n">
+      <c r="C188" t="n">
         <v>2100</v>
       </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
-        <v>0</v>
-      </c>
-      <c r="H188" t="n">
-        <v>84</v>
-      </c>
-      <c r="I188" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7784,29 +6082,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C189" s="2" t="n">
-        <v>28294</v>
-      </c>
-      <c r="D189" t="n">
+      <c r="C189" t="n">
         <v>2200</v>
       </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
-        <v>0</v>
-      </c>
-      <c r="H189" t="n">
-        <v>47</v>
-      </c>
-      <c r="I189" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -7823,29 +6112,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C190" s="2" t="n">
-        <v>10865</v>
-      </c>
-      <c r="D190" t="n">
+      <c r="C190" t="n">
         <v>2400</v>
       </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
-        <v>0</v>
-      </c>
-      <c r="H190" t="n">
-        <v>95</v>
-      </c>
-      <c r="I190" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7862,29 +6142,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C191" s="2" t="n">
-        <v>14338</v>
-      </c>
-      <c r="D191" t="n">
+      <c r="C191" t="n">
         <v>2300</v>
       </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
-        <v>0</v>
-      </c>
-      <c r="H191" t="n">
-        <v>85</v>
-      </c>
-      <c r="I191" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7901,29 +6172,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C192" s="2" t="n">
-        <v>19047</v>
-      </c>
-      <c r="D192" t="n">
+      <c r="C192" t="n">
         <v>2200</v>
       </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
-        <v>0</v>
-      </c>
-      <c r="H192" t="n">
-        <v>72</v>
-      </c>
-      <c r="I192" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7940,29 +6202,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C193" s="2" t="n">
-        <v>20711</v>
-      </c>
-      <c r="D193" t="n">
+      <c r="C193" t="n">
         <v>2300</v>
       </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-      <c r="H193" t="n">
-        <v>68</v>
-      </c>
-      <c r="I193" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -7979,29 +6232,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C194" s="2" t="n">
-        <v>22851</v>
-      </c>
-      <c r="D194" t="n">
+      <c r="C194" t="n">
         <v>2300</v>
       </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G194" t="n">
-        <v>0</v>
-      </c>
-      <c r="H194" t="n">
-        <v>62</v>
-      </c>
-      <c r="I194" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -8018,29 +6262,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C195" s="2" t="n">
-        <v>22503</v>
-      </c>
-      <c r="D195" t="n">
+      <c r="C195" t="n">
         <v>2200</v>
       </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
-        <v>0</v>
-      </c>
-      <c r="H195" t="n">
-        <v>63</v>
-      </c>
-      <c r="I195" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -8057,29 +6292,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C196" s="2" t="n">
-        <v>16970</v>
-      </c>
-      <c r="D196" t="n">
+      <c r="C196" t="n">
         <v>2200</v>
       </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
-        <is>
-          <t>Never married</t>
-        </is>
-      </c>
-      <c r="G196" t="n">
-        <v>0</v>
-      </c>
-      <c r="H196" t="n">
-        <v>78</v>
-      </c>
-      <c r="I196" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -8096,29 +6322,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C197" s="2" t="n">
-        <v>14139</v>
-      </c>
-      <c r="D197" t="n">
+      <c r="C197" t="n">
         <v>2400</v>
       </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
-        <is>
-          <t>Widowed</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
-        <v>0</v>
-      </c>
-      <c r="H197" t="n">
-        <v>86</v>
-      </c>
-      <c r="I197" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -8135,29 +6352,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C198" s="2" t="n">
-        <v>18714</v>
-      </c>
-      <c r="D198" t="n">
+      <c r="C198" t="n">
         <v>2200</v>
       </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-      <c r="H198" t="n">
-        <v>73</v>
-      </c>
-      <c r="I198" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -8174,29 +6382,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C199" s="2" t="n">
-        <v>22264</v>
-      </c>
-      <c r="D199" t="n">
+      <c r="C199" t="n">
         <v>2400</v>
       </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
-      </c>
-      <c r="H199" t="n">
-        <v>64</v>
-      </c>
-      <c r="I199" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -8213,29 +6412,20 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C200" s="2" t="n">
-        <v>19883</v>
-      </c>
-      <c r="D200" t="n">
+      <c r="C200" t="n">
         <v>2400</v>
       </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
+      </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
-        <is>
-          <t>Married/separated</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H200" t="n">
-        <v>70</v>
-      </c>
-      <c r="I200" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -8252,29 +6442,20 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C201" s="2" t="n">
-        <v>26708</v>
-      </c>
-      <c r="D201" t="n">
+      <c r="C201" t="n">
         <v>2300</v>
       </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
+      </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
-        <is>
-          <t>Divorced</t>
-        </is>
-      </c>
-      <c r="G201" t="n">
-        <v>0</v>
-      </c>
-      <c r="H201" t="n">
-        <v>51</v>
-      </c>
-      <c r="I201" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>

--- a/deanonymisation-phase2/data/new/variable_adjusted_filtered_data_registerZ.xlsx
+++ b/deanonymisation-phase2/data/new/variable_adjusted_filtered_data_registerZ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>zip</t>
+          <t>citizenship</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>citizenship</t>
+          <t>marital_status</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>marital_status</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>age_group</t>
         </is>
@@ -476,20 +471,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>2100</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -506,20 +498,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>2200</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -536,20 +525,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>2200</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -566,20 +552,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>2100</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -596,20 +579,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>2100</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -626,20 +606,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>2100</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -656,20 +633,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>2200</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -686,20 +660,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>2200</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -716,20 +687,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>2300</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -746,20 +714,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>2200</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -776,20 +741,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>2100</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -806,20 +768,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>2300</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -836,20 +795,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C14" t="n">
-        <v>2300</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -866,20 +822,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C15" t="n">
-        <v>2100</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -896,20 +849,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>2400</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -926,20 +876,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>2400</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -956,20 +903,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C18" t="n">
-        <v>2100</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -986,20 +930,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>2300</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1016,20 +957,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>2200</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1046,20 +984,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>2300</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1076,20 +1011,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>2400</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1106,20 +1038,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>2100</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1136,20 +1065,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>2200</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1166,20 +1092,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>2200</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1196,20 +1119,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>2400</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1226,20 +1146,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>2100</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1256,20 +1173,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>2200</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1286,20 +1200,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>2100</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1316,20 +1227,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>2300</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1346,20 +1254,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C31" t="n">
-        <v>2100</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1376,20 +1281,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>2400</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1406,20 +1308,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C33" t="n">
-        <v>2300</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1436,20 +1335,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C34" t="n">
-        <v>2100</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1466,20 +1362,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C35" t="n">
-        <v>2200</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1496,20 +1389,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C36" t="n">
-        <v>2200</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1526,20 +1416,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C37" t="n">
-        <v>2100</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1556,20 +1443,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>2100</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1586,20 +1470,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C39" t="n">
-        <v>2300</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1616,20 +1497,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C40" t="n">
-        <v>2400</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1646,20 +1524,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>2200</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1676,20 +1551,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C42" t="n">
-        <v>2100</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1706,20 +1578,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C43" t="n">
-        <v>2400</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1736,20 +1605,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C44" t="n">
-        <v>2400</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1766,20 +1632,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C45" t="n">
-        <v>2300</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1796,20 +1659,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C46" t="n">
-        <v>2300</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -1826,20 +1686,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C47" t="n">
-        <v>2400</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1856,20 +1713,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C48" t="n">
-        <v>2400</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1886,20 +1740,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C49" t="n">
-        <v>2200</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1916,20 +1767,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>2400</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1946,20 +1794,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>2300</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -1976,20 +1821,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C52" t="n">
-        <v>2400</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2006,20 +1848,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C53" t="n">
-        <v>2300</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2036,20 +1875,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>2300</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2066,20 +1902,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>2400</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2096,20 +1929,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C56" t="n">
-        <v>2200</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2126,20 +1956,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C57" t="n">
-        <v>2300</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2156,20 +1983,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C58" t="n">
-        <v>2200</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2186,20 +2010,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C59" t="n">
-        <v>2200</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2216,20 +2037,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C60" t="n">
-        <v>2300</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -2246,20 +2064,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C61" t="n">
-        <v>2200</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -2276,20 +2091,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C62" t="n">
-        <v>2400</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -2306,20 +2118,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>2200</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -2336,20 +2145,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C64" t="n">
-        <v>2200</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2366,20 +2172,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C65" t="n">
-        <v>2200</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -2396,20 +2199,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C66" t="n">
-        <v>2200</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -2426,20 +2226,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C67" t="n">
-        <v>2400</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -2456,20 +2253,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>2100</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -2486,20 +2280,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C69" t="n">
-        <v>2300</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2516,20 +2307,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>2200</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2546,20 +2334,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C71" t="n">
-        <v>2300</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2576,20 +2361,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C72" t="n">
-        <v>2100</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2606,20 +2388,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>2200</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2636,20 +2415,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C74" t="n">
-        <v>2200</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2666,20 +2442,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C75" t="n">
-        <v>2100</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2696,20 +2469,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C76" t="n">
-        <v>2300</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2726,20 +2496,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C77" t="n">
-        <v>2100</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2756,20 +2523,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C78" t="n">
-        <v>2100</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2786,20 +2550,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C79" t="n">
-        <v>2200</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2816,20 +2577,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C80" t="n">
-        <v>2300</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2846,20 +2604,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C81" t="n">
-        <v>2100</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2876,20 +2631,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C82" t="n">
-        <v>2100</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2906,20 +2658,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C83" t="n">
-        <v>2300</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2936,20 +2685,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C84" t="n">
-        <v>2100</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2966,20 +2712,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C85" t="n">
-        <v>2200</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -2996,20 +2739,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C86" t="n">
-        <v>2100</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3026,20 +2766,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C87" t="n">
-        <v>2100</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Denmark</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
+          <t>Not married</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3052,20 +2789,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C88" t="n">
-        <v>2300</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3082,20 +2816,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C89" t="n">
-        <v>2400</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3112,20 +2843,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C90" t="n">
-        <v>2400</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3142,20 +2870,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C91" t="n">
-        <v>2400</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -3172,20 +2897,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C92" t="n">
-        <v>2100</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -3202,20 +2924,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C93" t="n">
-        <v>2200</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3232,20 +2951,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C94" t="n">
-        <v>2100</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3262,20 +2978,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C95" t="n">
-        <v>2100</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3292,20 +3005,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C96" t="n">
-        <v>2400</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -3322,20 +3032,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C97" t="n">
-        <v>2200</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -3352,20 +3059,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C98" t="n">
-        <v>2100</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3382,20 +3086,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>2100</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3412,20 +3113,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C100" t="n">
-        <v>2400</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3442,20 +3140,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C101" t="n">
-        <v>2300</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3472,20 +3167,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C102" t="n">
-        <v>2400</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -3502,20 +3194,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C103" t="n">
-        <v>2100</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3532,20 +3221,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C104" t="n">
-        <v>2200</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -3562,20 +3248,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C105" t="n">
-        <v>2100</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3592,20 +3275,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C106" t="n">
-        <v>2200</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -3622,20 +3302,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C107" t="n">
-        <v>2300</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -3652,20 +3329,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C108" t="n">
-        <v>2100</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3682,20 +3356,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C109" t="n">
-        <v>2100</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3712,20 +3383,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C110" t="n">
-        <v>2400</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -3742,20 +3410,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C111" t="n">
-        <v>2300</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3772,20 +3437,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C112" t="n">
-        <v>2300</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -3802,20 +3464,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C113" t="n">
-        <v>2400</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
         <is>
           <t>20-40</t>
         </is>
@@ -3832,20 +3491,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C114" t="n">
-        <v>2400</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -3862,20 +3518,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C115" t="n">
-        <v>2200</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -3892,20 +3545,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C116" t="n">
-        <v>2400</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -3922,20 +3572,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C117" t="n">
-        <v>2300</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -3952,20 +3599,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C118" t="n">
-        <v>2400</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -3982,20 +3626,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C119" t="n">
-        <v>2400</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4012,20 +3653,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C120" t="n">
-        <v>2200</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4042,20 +3680,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C121" t="n">
-        <v>2200</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4072,20 +3707,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>2400</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4102,20 +3734,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C123" t="n">
-        <v>2200</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4132,20 +3761,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C124" t="n">
-        <v>2200</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4162,20 +3788,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C125" t="n">
-        <v>2400</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4192,20 +3815,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C126" t="n">
-        <v>2300</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4222,20 +3842,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C127" t="n">
-        <v>2100</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4252,20 +3869,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C128" t="n">
-        <v>2100</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4282,20 +3896,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C129" t="n">
-        <v>2400</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4312,20 +3923,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C130" t="n">
-        <v>2200</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4342,20 +3950,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C131" t="n">
-        <v>2400</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4372,20 +3977,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C132" t="n">
-        <v>2400</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4402,20 +4004,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C133" t="n">
-        <v>2100</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4432,20 +4031,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C134" t="n">
-        <v>2100</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4462,20 +4058,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C135" t="n">
-        <v>2200</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4492,20 +4085,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C136" t="n">
-        <v>2300</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4522,20 +4112,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C137" t="n">
-        <v>2400</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4552,20 +4139,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C138" t="n">
-        <v>2400</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4582,20 +4166,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C139" t="n">
-        <v>2200</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4612,20 +4193,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C140" t="n">
-        <v>2400</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4642,20 +4220,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C141" t="n">
-        <v>2300</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4672,20 +4247,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C142" t="n">
-        <v>2400</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4702,20 +4274,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C143" t="n">
-        <v>2400</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4732,20 +4301,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C144" t="n">
-        <v>2400</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4762,20 +4328,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C145" t="n">
-        <v>2200</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4792,20 +4355,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C146" t="n">
-        <v>2400</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4822,20 +4382,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C147" t="n">
-        <v>2200</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4852,20 +4409,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C148" t="n">
-        <v>2400</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4882,20 +4436,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C149" t="n">
-        <v>2300</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4912,20 +4463,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C150" t="n">
-        <v>2400</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -4942,20 +4490,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C151" t="n">
-        <v>2400</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -4972,20 +4517,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C152" t="n">
-        <v>2400</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5002,20 +4544,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C153" t="n">
-        <v>2300</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5032,20 +4571,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C154" t="n">
-        <v>2400</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5062,20 +4598,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C155" t="n">
-        <v>2400</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5092,20 +4625,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C156" t="n">
-        <v>2100</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5122,20 +4652,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C157" t="n">
-        <v>2300</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5152,20 +4679,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C158" t="n">
-        <v>2200</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5182,20 +4706,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C159" t="n">
-        <v>2300</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5212,20 +4733,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C160" t="n">
-        <v>2300</v>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5242,20 +4760,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C161" t="n">
-        <v>2400</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5272,20 +4787,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C162" t="n">
-        <v>2400</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5302,20 +4814,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C163" t="n">
-        <v>2400</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5332,20 +4841,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C164" t="n">
-        <v>2400</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5362,20 +4868,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C165" t="n">
-        <v>2400</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5392,20 +4895,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C166" t="n">
-        <v>2400</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5422,20 +4922,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C167" t="n">
-        <v>2400</v>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5452,20 +4949,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C168" t="n">
-        <v>2200</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5482,20 +4976,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C169" t="n">
-        <v>2200</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5512,20 +5003,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C170" t="n">
-        <v>2300</v>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5542,20 +5030,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C171" t="n">
-        <v>2400</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5572,20 +5057,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C172" t="n">
-        <v>2100</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5602,20 +5084,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C173" t="n">
-        <v>2300</v>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5632,20 +5111,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C174" t="n">
-        <v>2300</v>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5662,20 +5138,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C175" t="n">
-        <v>2300</v>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5692,20 +5165,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C176" t="n">
-        <v>2200</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5722,20 +5192,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C177" t="n">
-        <v>2300</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5752,20 +5219,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C178" t="n">
-        <v>2300</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5782,20 +5246,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C179" t="n">
-        <v>2400</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5812,20 +5273,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C180" t="n">
-        <v>2400</v>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -5842,20 +5300,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C181" t="n">
-        <v>2300</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5872,20 +5327,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C182" t="n">
-        <v>2200</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5902,20 +5354,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C183" t="n">
-        <v>2300</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5932,20 +5381,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C184" t="n">
-        <v>2200</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5962,20 +5408,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C185" t="n">
-        <v>2200</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -5992,20 +5435,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C186" t="n">
-        <v>2200</v>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6022,20 +5462,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C187" t="n">
-        <v>2400</v>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6052,20 +5489,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C188" t="n">
-        <v>2100</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6082,20 +5516,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C189" t="n">
-        <v>2200</v>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>
@@ -6112,20 +5543,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C190" t="n">
-        <v>2400</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6142,20 +5570,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C191" t="n">
-        <v>2300</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6172,20 +5597,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C192" t="n">
-        <v>2200</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6202,20 +5624,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C193" t="n">
-        <v>2300</v>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6232,20 +5651,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C194" t="n">
-        <v>2300</v>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6262,20 +5678,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C195" t="n">
-        <v>2200</v>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6292,20 +5705,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C196" t="n">
-        <v>2200</v>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6322,20 +5732,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C197" t="n">
-        <v>2400</v>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6352,20 +5759,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C198" t="n">
-        <v>2200</v>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6382,20 +5786,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C199" t="n">
-        <v>2400</v>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6412,20 +5813,17 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="C200" t="n">
-        <v>2400</v>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Foreign</t>
+        </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Married/separate</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
-        <is>
-          <t>Married/separate</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
         <is>
           <t>60+</t>
         </is>
@@ -6442,20 +5840,17 @@
           <t>Male</t>
         </is>
       </c>
-      <c r="C201" t="n">
-        <v>2300</v>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Denmark</t>
+        </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Not married</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
-        <is>
-          <t>Not married</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
         <is>
           <t>40-60</t>
         </is>

--- a/deanonymisation-phase2/data/new/variable_adjusted_filtered_data_registerZ.xlsx
+++ b/deanonymisation-phase2/data/new/variable_adjusted_filtered_data_registerZ.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>age_group</t>
+          <t>age_range</t>
         </is>
       </c>
     </row>

--- a/deanonymisation-phase2/data/new/variable_adjusted_filtered_data_registerZ.xlsx
+++ b/deanonymisation-phase2/data/new/variable_adjusted_filtered_data_registerZ.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Foreign</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
